--- a/SapinesPolicyAndBillingTest/target/classes/com/adaptikPolicyAndBilling/qa/testdata/BillingTestData.xlsx
+++ b/SapinesPolicyAndBillingTest/target/classes/com/adaptikPolicyAndBilling/qa/testdata/BillingTestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70E61B44-AF1A-4C74-A98C-227E586C869B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C3514955-77BA-4BFE-BB88-924807216059}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="20460" windowHeight="10890" xr2:uid="{AC402A2D-D150-4B4E-81BE-33F3FA3101ED}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20670" windowHeight="11820" xr2:uid="{AC402A2D-D150-4B4E-81BE-33F3FA3101ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSearchOverlay" sheetId="1" r:id="rId1"/>
+    <sheet name="RemittanceDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,15 +22,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>AccountID</t>
   </si>
   <si>
-    <t>405300001</t>
-  </si>
-  <si>
-    <t>126300001</t>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>NumberOfItems</t>
+  </si>
+  <si>
+    <t>BOFA</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PaymentIDValue</t>
+  </si>
+  <si>
+    <t>AllocationLevelByValue</t>
+  </si>
+  <si>
+    <t>AccountCodeNumber</t>
+  </si>
+  <si>
+    <t>322332323221</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>TypeOfAdjustment</t>
+  </si>
+  <si>
+    <t>496300001</t>
+  </si>
+  <si>
+    <t>596300001</t>
   </si>
 </sst>
 </file>
@@ -382,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F1841-CD10-43B9-9A40-8C2F722C7283}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,23 +439,124 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB0F4A8-DB7D-4A2B-BB98-3FF0BAB10B53}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>